--- a/biology/Zoologie/Ariadna_insidiatrix/Ariadna_insidiatrix.xlsx
+++ b/biology/Zoologie/Ariadna_insidiatrix/Ariadna_insidiatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ariadna insidiatrix est une espèce d'araignées aranéomorphes de la famille des Segestriidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariadna insidiatrix est une espèce d'araignées aranéomorphes de la famille des Segestriidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le bassin méditerranéen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le bassin méditerranéen.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Audouin, 1826 : Explication sommaire des planches d'arachnides de l'Égypte et de la Syrie publiées par J. C. Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres avec la distinction des espèces. in Description de l'Égypte, ou Recueil des observations et des recherches qui ont été faites en Égypte pendant l'expédition de l'armée française. Histoire Naturelle, tome 1, partie 4, p. 99-186.</t>
         </is>
